--- a/natmiOut/OldD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Igfbp4-Lrp6.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H2">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I2">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J2">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N2">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O2">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P2">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q2">
-        <v>282.408906487488</v>
+        <v>283.6137293825782</v>
       </c>
       <c r="R2">
-        <v>282.408906487488</v>
+        <v>1134.454917530313</v>
       </c>
       <c r="S2">
-        <v>0.03400603266911963</v>
+        <v>0.03151147659605832</v>
       </c>
       <c r="T2">
-        <v>0.03400603266911963</v>
+        <v>0.01761233053028948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H3">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I3">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J3">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N3">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O3">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P3">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q3">
-        <v>405.3100267703666</v>
+        <v>429.5335832536685</v>
       </c>
       <c r="R3">
-        <v>405.3100267703666</v>
+        <v>2577.201499522011</v>
       </c>
       <c r="S3">
-        <v>0.04880506844809969</v>
+        <v>0.04772419686940051</v>
       </c>
       <c r="T3">
-        <v>0.04880506844809969</v>
+        <v>0.04001086685009365</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H4">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I4">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J4">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N4">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O4">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P4">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q4">
-        <v>344.9615840082353</v>
+        <v>385.152316791012</v>
       </c>
       <c r="R4">
-        <v>344.9615840082353</v>
+        <v>2310.913900746072</v>
       </c>
       <c r="S4">
-        <v>0.0415382611025939</v>
+        <v>0.0427931265630159</v>
       </c>
       <c r="T4">
-        <v>0.0415382611025939</v>
+        <v>0.03587677114184915</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H5">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I5">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J5">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N5">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O5">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P5">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q5">
-        <v>422.507660437193</v>
+        <v>424.856549828438</v>
       </c>
       <c r="R5">
-        <v>422.507660437193</v>
+        <v>2549.139298970628</v>
       </c>
       <c r="S5">
-        <v>0.05087590714642367</v>
+        <v>0.04720454561824641</v>
       </c>
       <c r="T5">
-        <v>0.05087590714642367</v>
+        <v>0.03957520321650108</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H6">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I6">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J6">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N6">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O6">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P6">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q6">
-        <v>206.4344227561547</v>
+        <v>212.512612446795</v>
       </c>
       <c r="R6">
-        <v>206.4344227561547</v>
+        <v>1275.07567468077</v>
       </c>
       <c r="S6">
-        <v>0.02485762864772704</v>
+        <v>0.02361164330112909</v>
       </c>
       <c r="T6">
-        <v>0.02485762864772704</v>
+        <v>0.01979545761280507</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>21.1349680408259</v>
+        <v>21.1407585</v>
       </c>
       <c r="H7">
-        <v>21.1349680408259</v>
+        <v>42.281517</v>
       </c>
       <c r="I7">
-        <v>0.2410981414854269</v>
+        <v>0.2318237349109483</v>
       </c>
       <c r="J7">
-        <v>0.2410981414854269</v>
+        <v>0.1746565509177827</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N7">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O7">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P7">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q7">
-        <v>340.6180947597673</v>
+        <v>350.821627655277</v>
       </c>
       <c r="R7">
-        <v>340.6180947597673</v>
+        <v>1403.286510621108</v>
       </c>
       <c r="S7">
-        <v>0.04101524347146294</v>
+        <v>0.03897874596309802</v>
       </c>
       <c r="T7">
-        <v>0.04101524347146294</v>
+        <v>0.02178592156624428</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H8">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I8">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J8">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N8">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O8">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P8">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q8">
-        <v>468.7216786417071</v>
+        <v>491.2302207326925</v>
       </c>
       <c r="R8">
-        <v>468.7216786417071</v>
+        <v>2947.381324396155</v>
       </c>
       <c r="S8">
-        <v>0.05644072956077491</v>
+        <v>0.0545791264675132</v>
       </c>
       <c r="T8">
-        <v>0.05644072956077491</v>
+        <v>0.04575788185314149</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H9">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I9">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J9">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N9">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O9">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P9">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q9">
-        <v>672.7039826080638</v>
+        <v>743.9691913827539</v>
       </c>
       <c r="R9">
-        <v>672.7039826080638</v>
+        <v>6695.722722444784</v>
       </c>
       <c r="S9">
-        <v>0.08100308837189668</v>
+        <v>0.08266020059565625</v>
       </c>
       <c r="T9">
-        <v>0.08100308837189668</v>
+        <v>0.1039506109097687</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H10">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I10">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J10">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N10">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O10">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P10">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q10">
-        <v>572.5420445633357</v>
+        <v>667.0990787534801</v>
       </c>
       <c r="R10">
-        <v>572.5420445633357</v>
+        <v>6003.89170878132</v>
       </c>
       <c r="S10">
-        <v>0.06894217223537863</v>
+        <v>0.07411939137486494</v>
       </c>
       <c r="T10">
-        <v>0.06894217223537863</v>
+        <v>0.09320998446841817</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H11">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I11">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J11">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N11">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O11">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P11">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q11">
-        <v>701.247359023627</v>
+        <v>735.8683841092424</v>
       </c>
       <c r="R11">
-        <v>701.247359023627</v>
+        <v>6622.81545698318</v>
       </c>
       <c r="S11">
-        <v>0.08444011520985027</v>
+        <v>0.08176014403152532</v>
       </c>
       <c r="T11">
-        <v>0.08444011520985027</v>
+        <v>0.1028187308874539</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H12">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I12">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J12">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N12">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O12">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P12">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q12">
-        <v>342.6247789673856</v>
+        <v>368.0802680038834</v>
       </c>
       <c r="R12">
-        <v>342.6247789673856</v>
+        <v>3312.72241203495</v>
       </c>
       <c r="S12">
-        <v>0.04125687667478366</v>
+        <v>0.04089630207932991</v>
       </c>
       <c r="T12">
-        <v>0.04125687667478366</v>
+        <v>0.05142977581063583</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>35.0782764656668</v>
+        <v>36.61663166666667</v>
       </c>
       <c r="H13">
-        <v>35.0782764656668</v>
+        <v>109.849895</v>
       </c>
       <c r="I13">
-        <v>0.4001570878199334</v>
+        <v>0.401527897536182</v>
       </c>
       <c r="J13">
-        <v>0.4001570878199334</v>
+        <v>0.4537681034334833</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N13">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O13">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P13">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q13">
-        <v>565.3330383141142</v>
+        <v>607.6369644236634</v>
       </c>
       <c r="R13">
-        <v>565.3330383141142</v>
+        <v>3645.82178654198</v>
       </c>
       <c r="S13">
-        <v>0.06807410576724912</v>
+        <v>0.06751273298729232</v>
       </c>
       <c r="T13">
-        <v>0.06807410576724912</v>
+        <v>0.05660111950406534</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H14">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I14">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J14">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N14">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O14">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P14">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q14">
-        <v>71.80156955898056</v>
+        <v>86.3849761632645</v>
       </c>
       <c r="R14">
-        <v>71.80156955898056</v>
+        <v>518.309856979587</v>
       </c>
       <c r="S14">
-        <v>0.008645926045625391</v>
+        <v>0.0095979773635986</v>
       </c>
       <c r="T14">
-        <v>0.008645926045625391</v>
+        <v>0.00804672303603253</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H15">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I15">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J15">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N15">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O15">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P15">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q15">
-        <v>103.0487899339467</v>
+        <v>130.8302261370321</v>
       </c>
       <c r="R15">
-        <v>103.0487899339467</v>
+        <v>1177.472035233289</v>
       </c>
       <c r="S15">
-        <v>0.01240853399629693</v>
+        <v>0.01453615668729805</v>
       </c>
       <c r="T15">
-        <v>0.01240853399629693</v>
+        <v>0.01828016817084952</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H16">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I16">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J16">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N16">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O16">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P16">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q16">
-        <v>87.7053895976924</v>
+        <v>117.312281664392</v>
       </c>
       <c r="R16">
-        <v>87.7053895976924</v>
+        <v>1055.810534979528</v>
       </c>
       <c r="S16">
-        <v>0.01056097125622747</v>
+        <v>0.01303421814643917</v>
       </c>
       <c r="T16">
-        <v>0.01056097125622747</v>
+        <v>0.01639138218017759</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H17">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I17">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J17">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N17">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O17">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P17">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q17">
-        <v>107.4212337967723</v>
+        <v>129.4056638570858</v>
       </c>
       <c r="R17">
-        <v>107.4212337967723</v>
+        <v>1164.650974713772</v>
       </c>
       <c r="S17">
-        <v>0.01293503817313927</v>
+        <v>0.01437787781609573</v>
       </c>
       <c r="T17">
-        <v>0.01293503817313927</v>
+        <v>0.0180811221337358</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H18">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I18">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J18">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N18">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O18">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P18">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q18">
-        <v>52.48529782310792</v>
+        <v>64.72852002113667</v>
       </c>
       <c r="R18">
-        <v>52.48529782310792</v>
+        <v>582.5566801902301</v>
       </c>
       <c r="S18">
-        <v>0.006319973313235984</v>
+        <v>0.007191793035492004</v>
       </c>
       <c r="T18">
-        <v>0.006319973313235984</v>
+        <v>0.009044150318881505</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>5.37349865053716</v>
+        <v>6.439194333333334</v>
       </c>
       <c r="H19">
-        <v>5.37349865053716</v>
+        <v>19.317583</v>
       </c>
       <c r="I19">
-        <v>0.06129843846540931</v>
+        <v>0.07061043151175238</v>
       </c>
       <c r="J19">
-        <v>0.06129843846540931</v>
+        <v>0.07979709949498723</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N19">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O19">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P19">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q19">
-        <v>86.60107122019686</v>
+        <v>106.8556095945487</v>
       </c>
       <c r="R19">
-        <v>86.60107122019686</v>
+        <v>641.1336575672921</v>
       </c>
       <c r="S19">
-        <v>0.01042799568088425</v>
+        <v>0.01187240846282882</v>
       </c>
       <c r="T19">
-        <v>0.01042799568088425</v>
+        <v>0.009953553655310286</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H20">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I20">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J20">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N20">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O20">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P20">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q20">
-        <v>116.6061747299824</v>
+        <v>121.6019281695735</v>
       </c>
       <c r="R20">
-        <v>116.6061747299824</v>
+        <v>729.6115690174411</v>
       </c>
       <c r="S20">
-        <v>0.01404103516637686</v>
+        <v>0.01351082799091905</v>
       </c>
       <c r="T20">
-        <v>0.01404103516637686</v>
+        <v>0.01132716683024552</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H21">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I21">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J21">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N21">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O21">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P21">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q21">
-        <v>167.3518459074984</v>
+        <v>184.1663732250919</v>
       </c>
       <c r="R21">
-        <v>167.3518459074984</v>
+        <v>1657.497359025827</v>
       </c>
       <c r="S21">
-        <v>0.020151532789636</v>
+        <v>0.02046217710368683</v>
       </c>
       <c r="T21">
-        <v>0.020151532789636</v>
+        <v>0.02573252659858537</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H22">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I22">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J22">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N22">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O22">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P22">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q22">
-        <v>142.4340727787136</v>
+        <v>165.137507492056</v>
       </c>
       <c r="R22">
-        <v>142.4340727787136</v>
+        <v>1486.237567428504</v>
       </c>
       <c r="S22">
-        <v>0.0171510799441564</v>
+        <v>0.0183479365184321</v>
       </c>
       <c r="T22">
-        <v>0.0171510799441564</v>
+        <v>0.02307373072265322</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H23">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I23">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J23">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N23">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O23">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P23">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q23">
-        <v>174.4527206682773</v>
+        <v>182.1610532292662</v>
       </c>
       <c r="R23">
-        <v>174.4527206682773</v>
+        <v>1639.449479063396</v>
       </c>
       <c r="S23">
-        <v>0.02100657869487226</v>
+        <v>0.0202393719727306</v>
       </c>
       <c r="T23">
-        <v>0.02100657869487226</v>
+        <v>0.02545233456771885</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H24">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I24">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J24">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N24">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O24">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P24">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q24">
-        <v>85.23643489003669</v>
+        <v>91.11668708754334</v>
       </c>
       <c r="R24">
-        <v>85.23643489003669</v>
+        <v>820.0501837878901</v>
       </c>
       <c r="S24">
-        <v>0.01026367413663101</v>
+        <v>0.01012370366878954</v>
       </c>
       <c r="T24">
-        <v>0.01026367413663101</v>
+        <v>0.01273121978239477</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>8.7265936720389</v>
+        <v>9.064289666666667</v>
       </c>
       <c r="H25">
-        <v>8.7265936720389</v>
+        <v>27.192869</v>
       </c>
       <c r="I25">
-        <v>0.09954902755295808</v>
+        <v>0.09939650390696157</v>
       </c>
       <c r="J25">
-        <v>0.09954902755295808</v>
+        <v>0.1123283421713345</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N25">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O25">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P25">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q25">
-        <v>140.640653185316</v>
+        <v>150.4179168594594</v>
       </c>
       <c r="R25">
-        <v>140.640653185316</v>
+        <v>902.507501156756</v>
       </c>
       <c r="S25">
-        <v>0.01693512682128554</v>
+        <v>0.01671248665240344</v>
       </c>
       <c r="T25">
-        <v>0.01693512682128554</v>
+        <v>0.01401136366973672</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H26">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I26">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J26">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N26">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O26">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P26">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q26">
-        <v>97.82530062198646</v>
+        <v>101.6514779887335</v>
       </c>
       <c r="R26">
-        <v>97.82530062198646</v>
+        <v>609.908867932401</v>
       </c>
       <c r="S26">
-        <v>0.01177955189230232</v>
+        <v>0.0112941929030375</v>
       </c>
       <c r="T26">
-        <v>0.01177955189230232</v>
+        <v>0.009468791054972081</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H27">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I27">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J27">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N27">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O27">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P27">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q27">
-        <v>140.3977505775766</v>
+        <v>153.9513749161052</v>
       </c>
       <c r="R27">
-        <v>140.3977505775766</v>
+        <v>1385.562374244947</v>
       </c>
       <c r="S27">
-        <v>0.01690587790659323</v>
+        <v>0.01710507865102616</v>
       </c>
       <c r="T27">
-        <v>0.01690587790659323</v>
+        <v>0.0215107556311356</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H28">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I28">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J28">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N28">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O28">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P28">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q28">
-        <v>119.4932945931623</v>
+        <v>138.044453411416</v>
       </c>
       <c r="R28">
-        <v>119.4932945931623</v>
+        <v>1242.400080702744</v>
       </c>
       <c r="S28">
-        <v>0.01438868529401655</v>
+        <v>0.01533770798881751</v>
       </c>
       <c r="T28">
-        <v>0.01438868529401655</v>
+        <v>0.01928817137998819</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H29">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I29">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J29">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N29">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O29">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P29">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q29">
-        <v>146.3549411788532</v>
+        <v>152.2750549392395</v>
       </c>
       <c r="R29">
-        <v>146.3549411788532</v>
+        <v>1370.475494453156</v>
       </c>
       <c r="S29">
-        <v>0.01762320803871554</v>
+        <v>0.01691882773209673</v>
       </c>
       <c r="T29">
-        <v>0.01762320803871554</v>
+        <v>0.021276532913725</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H30">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I30">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J30">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N30">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O30">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P30">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q30">
-        <v>71.50804737718774</v>
+        <v>76.16775532514333</v>
       </c>
       <c r="R30">
-        <v>71.50804737718774</v>
+        <v>685.5097979262899</v>
       </c>
       <c r="S30">
-        <v>0.008610581817189733</v>
+        <v>0.008462772393027835</v>
       </c>
       <c r="T30">
-        <v>0.008610581817189733</v>
+        <v>0.01064249002429589</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>7.3210672706651</v>
+        <v>7.577169666666666</v>
       </c>
       <c r="H31">
-        <v>7.3210672706651</v>
+        <v>22.731509</v>
       </c>
       <c r="I31">
-        <v>0.08351541905516727</v>
+        <v>0.08308915558448915</v>
       </c>
       <c r="J31">
-        <v>0.08351541905516727</v>
+        <v>0.09389934990025395</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N31">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O31">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P31">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q31">
-        <v>117.9887275213779</v>
+        <v>125.7398118180193</v>
       </c>
       <c r="R31">
-        <v>117.9887275213779</v>
+        <v>754.438870908116</v>
       </c>
       <c r="S31">
-        <v>0.01420751410634988</v>
+        <v>0.01397057591648342</v>
       </c>
       <c r="T31">
-        <v>0.01420751410634988</v>
+        <v>0.0117126088961372</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H32">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I32">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J32">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>13.3621638765654</v>
+        <v>13.4154945</v>
       </c>
       <c r="N32">
-        <v>13.3621638765654</v>
+        <v>26.830989</v>
       </c>
       <c r="O32">
-        <v>0.1410464322105739</v>
+        <v>0.1359286037219744</v>
       </c>
       <c r="P32">
-        <v>0.1410464322105739</v>
+        <v>0.1008397935132719</v>
       </c>
       <c r="Q32">
-        <v>133.9805568023664</v>
+        <v>138.9201353541472</v>
       </c>
       <c r="R32">
-        <v>133.9805568023664</v>
+        <v>555.680541416589</v>
       </c>
       <c r="S32">
-        <v>0.01613315687637482</v>
+        <v>0.0154350024008477</v>
       </c>
       <c r="T32">
-        <v>0.01613315687637482</v>
+        <v>0.008626900208590853</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H33">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I33">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J33">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>19.1772244929559</v>
+        <v>20.31779433333333</v>
       </c>
       <c r="N33">
-        <v>19.1772244929559</v>
+        <v>60.953383</v>
       </c>
       <c r="O33">
-        <v>0.202428223408971</v>
+        <v>0.2058641531581443</v>
       </c>
       <c r="P33">
-        <v>0.202428223408971</v>
+        <v>0.2290831156337689</v>
       </c>
       <c r="Q33">
-        <v>192.2873599833922</v>
+        <v>210.3948340394305</v>
       </c>
       <c r="R33">
-        <v>192.2873599833922</v>
+        <v>1262.369004236583</v>
       </c>
       <c r="S33">
-        <v>0.02315412189644842</v>
+        <v>0.02337634325107657</v>
       </c>
       <c r="T33">
-        <v>0.02315412189644842</v>
+        <v>0.01959818747333608</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H34">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I34">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J34">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>16.3218408157458</v>
+        <v>18.218472</v>
       </c>
       <c r="N34">
-        <v>16.3218408157458</v>
+        <v>54.655416</v>
       </c>
       <c r="O34">
-        <v>0.1722877698130438</v>
+        <v>0.1845933790146823</v>
       </c>
       <c r="P34">
-        <v>0.1722877698130438</v>
+        <v>0.2054132579243344</v>
       </c>
       <c r="Q34">
-        <v>163.6568254014939</v>
+        <v>188.655930363636</v>
       </c>
       <c r="R34">
-        <v>163.6568254014939</v>
+        <v>1131.935582181816</v>
       </c>
       <c r="S34">
-        <v>0.01970659998067086</v>
+        <v>0.02096099842311266</v>
       </c>
       <c r="T34">
-        <v>0.01970659998067086</v>
+        <v>0.01757321803124811</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H35">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I35">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J35">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>19.9909297057391</v>
+        <v>20.09656133333333</v>
       </c>
       <c r="N35">
-        <v>19.9909297057391</v>
+        <v>60.289684</v>
       </c>
       <c r="O35">
-        <v>0.2110174173594733</v>
+        <v>0.2036225740059764</v>
       </c>
       <c r="P35">
-        <v>0.2110174173594733</v>
+        <v>0.2265887137272657</v>
       </c>
       <c r="Q35">
-        <v>200.4462688613833</v>
+        <v>208.103921967214</v>
       </c>
       <c r="R35">
-        <v>200.4462688613833</v>
+        <v>1248.623531803284</v>
       </c>
       <c r="S35">
-        <v>0.02413657009647226</v>
+        <v>0.02312180683528163</v>
       </c>
       <c r="T35">
-        <v>0.02413657009647226</v>
+        <v>0.01938479000813114</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H36">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I36">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J36">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>9.76743481974472</v>
+        <v>10.05227</v>
       </c>
       <c r="N36">
-        <v>9.76743481974472</v>
+        <v>30.15681</v>
       </c>
       <c r="O36">
-        <v>0.1031017016331068</v>
+        <v>0.1018517077649498</v>
       </c>
       <c r="P36">
-        <v>0.1031017016331068</v>
+        <v>0.1133393365939278</v>
       </c>
       <c r="Q36">
-        <v>97.93670903672471</v>
+        <v>104.093271330135</v>
       </c>
       <c r="R36">
-        <v>97.93670903672471</v>
+        <v>624.55962798081</v>
       </c>
       <c r="S36">
-        <v>0.01179296704353932</v>
+        <v>0.01156549328718142</v>
       </c>
       <c r="T36">
-        <v>0.01179296704353932</v>
+        <v>0.009696243044914772</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>10.0268607719549</v>
+        <v>10.3552005</v>
       </c>
       <c r="H37">
-        <v>10.0268607719549</v>
+        <v>20.710401</v>
       </c>
       <c r="I37">
-        <v>0.1143818856211051</v>
+        <v>0.1135522765496668</v>
       </c>
       <c r="J37">
-        <v>0.1143818856211051</v>
+        <v>0.08555055408215835</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>16.1163288301077</v>
+        <v>16.594562</v>
       </c>
       <c r="N37">
-        <v>16.1163288301077</v>
+        <v>33.189124</v>
       </c>
       <c r="O37">
-        <v>0.1701184555748311</v>
+        <v>0.1681395823342728</v>
       </c>
       <c r="P37">
-        <v>0.1701184555748311</v>
+        <v>0.1247357826074312</v>
       </c>
       <c r="Q37">
-        <v>161.5961853345327</v>
+        <v>171.840016719681</v>
       </c>
       <c r="R37">
-        <v>161.5961853345327</v>
+        <v>687.3600668787241</v>
       </c>
       <c r="S37">
-        <v>0.01945846972759938</v>
+        <v>0.01909263235216682</v>
       </c>
       <c r="T37">
-        <v>0.01945846972759938</v>
+        <v>0.01067121531593739</v>
       </c>
     </row>
   </sheetData>
